--- a/template/契約精算申請書.xlsx
+++ b/template/契約精算申請書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E759E2-A450-41CD-817B-1AB0AFB39853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D432231E-3A07-4171-B272-37C3E1885C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
   </bookViews>
@@ -21,10 +21,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">契約・不可分一体精算申請書!$A$1:$R$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">不可分一体契約特別歩合申請書!$A$1:$R$25</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1684,6 +1693,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1721,12 +1739,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1735,6 +1765,18 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1765,6 +1807,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
@@ -1773,51 +1827,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1871,6 +1880,13 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:alpha val="55000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2191,7 +2207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8621565-D2C9-435C-9543-151186F78AFD}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2229,7 +2247,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="64">
         <f ca="1">TODAY()</f>
-        <v>45053</v>
+        <v>45055</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="65"/>
@@ -2300,18 +2318,18 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="103"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="68"/>
     </row>
     <row r="7" spans="1:20" ht="33.75" customHeight="1">
       <c r="A7" s="35" t="s">
@@ -2491,26 +2509,26 @@
       <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="74"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1"/>
     <row r="16" spans="1:20">
@@ -2588,31 +2606,31 @@
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67" t="s">
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67" t="s">
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67" t="s">
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67" t="s">
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
     </row>
     <row r="21" spans="1:18" ht="34.5" customHeight="1">
       <c r="A21" s="20" t="s">
@@ -2790,7 +2808,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="64">
         <f ca="1">TODAY()</f>
-        <v>45053</v>
+        <v>45055</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="65"/>
@@ -2806,24 +2824,24 @@
       <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A3" s="86" t="str">
+      <c r="A3" s="95" t="str">
         <f>IF(ISERROR(契約・不可分一体精算申請書!_xlnm.A3),"",契約・不可分一体精算申請書!_xlnm.A3)</f>
         <v/>
       </c>
-      <c r="B3" s="87"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="72" t="str">
+      <c r="E3" s="75" t="str">
         <f>IF(ISERROR(契約・不可分一体精算申請書!_xlnm.E3),"",契約・不可分一体精算申請書!_xlnm.E3)</f>
         <v/>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2836,26 +2854,26 @@
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:18" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="79"/>
     </row>
     <row r="6" spans="1:18" ht="33.75" customHeight="1">
       <c r="A6" s="35" t="s">
@@ -2866,7 +2884,7 @@
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
-      <c r="G6" s="92" t="str">
+      <c r="G6" s="80" t="str">
         <f>契約・不可分一体精算申請書!G7</f>
         <v>$addressAndBukkenNameAndContractBukkenNo$</v>
       </c>
@@ -2904,7 +2922,7 @@
       <c r="O7" s="53"/>
       <c r="P7" s="53"/>
       <c r="Q7" s="53"/>
-      <c r="R7" s="88"/>
+      <c r="R7" s="97"/>
     </row>
     <row r="8" spans="1:18" ht="33.75" customHeight="1">
       <c r="A8" s="16" t="s">
@@ -2915,95 +2933,95 @@
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="93" t="str">
+      <c r="G8" s="98" t="str">
         <f>IF(契約・不可分一体精算申請書!G6="","",契約・不可分一体精算申請書!G6)</f>
         <v/>
       </c>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="95"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="100"/>
     </row>
     <row r="9" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="99" t="str">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83" t="str">
         <f>IF(契約・不可分一体精算申請書!D13="","",契約・不可分一体精算申請書!D13)</f>
         <v/>
       </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="79" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="96">
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="87">
         <f>IF(D9="2ヶ月",300000,IF(D9="3ヶ月",200000,100000))</f>
         <v>100000</v>
       </c>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="98"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="89"/>
     </row>
     <row r="10" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="83"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
     </row>
     <row r="11" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="71"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="74"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1"/>
     <row r="13" spans="1:18">
@@ -3057,31 +3075,31 @@
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67" t="s">
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67" t="s">
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67" t="s">
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67" t="s">
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
     </row>
     <row r="17" spans="1:18" ht="34.5" customHeight="1">
       <c r="A17" s="20" t="s">

--- a/template/契約精算申請書.xlsx
+++ b/template/契約精算申請書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D432231E-3A07-4171-B272-37C3E1885C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C1EFC1-47E6-4983-9857-655AA87ECBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
   </bookViews>
   <sheets>
     <sheet name="契約・不可分一体精算申請書" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>←物件着手～不可分成立までが5ヶ月以内だった場合に記入し、次シートも合わせて提出して下さい。</t>
+          <t>←物件着手～不可分成立までが5ヶ月以内だった場合にリストより選択し、次シートも合わせて提出して下さい。</t>
         </r>
       </text>
     </comment>
@@ -71,21 +71,21 @@
     <rPh sb="0" eb="2">
       <t>シャチョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>本部長</t>
     <rPh sb="0" eb="3">
       <t>ホンブチョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>部長</t>
     <rPh sb="0" eb="2">
       <t>ブチョウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>申請日</t>
@@ -95,25 +95,25 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>部</t>
     <rPh sb="0" eb="1">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
       <t>シメイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>㊞</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>不可分一体契約特別歩合申請書</t>
@@ -135,7 +135,7 @@
     <rPh sb="11" eb="14">
       <t>シンセイショ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>物件住所（物件フォルダ名）
@@ -158,7 +158,7 @@
     <rPh sb="18" eb="20">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>物件着手日</t>
@@ -168,7 +168,7 @@
     <rPh sb="2" eb="5">
       <t>チャクシュビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>不可分一体成立日</t>
@@ -181,7 +181,7 @@
     <rPh sb="5" eb="8">
       <t>セイリツビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>着手～不可分成立</t>
@@ -194,21 +194,21 @@
     <rPh sb="6" eb="8">
       <t>セイリツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（事務使用欄）</t>
@@ -221,7 +221,7 @@
     <rPh sb="5" eb="6">
       <t>ラン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>歩合金額</t>
@@ -231,7 +231,7 @@
     <rPh sb="2" eb="4">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>担当名</t>
@@ -241,7 +241,7 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>金　額</t>
@@ -251,14 +251,14 @@
     <rPh sb="2" eb="3">
       <t>ガク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　　円</t>
     <rPh sb="2" eb="3">
       <t>エン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>支　払　日</t>
@@ -271,7 +271,7 @@
     <rPh sb="4" eb="5">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（支払承認）</t>
@@ -281,7 +281,7 @@
     <rPh sb="3" eb="5">
       <t>ショウニン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>確認者</t>
@@ -291,7 +291,7 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※歩合金額は担当で均等割とする。</t>
@@ -304,7 +304,7 @@
     <rPh sb="9" eb="12">
       <t>キントウワリ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※不可分範囲を縮めた物件は原則対象外。</t>
@@ -326,7 +326,7 @@
     <rPh sb="15" eb="18">
       <t>タイショウガイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※不可分母が「1」の案件は原則対象外。</t>
@@ -342,7 +342,7 @@
     <rPh sb="15" eb="18">
       <t>タイショウガイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※不可分一体が前提の為、買取案件は原則対象外。</t>
@@ -367,14 +367,14 @@
     <rPh sb="19" eb="22">
       <t>タイショウガイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>契約日</t>
     <rPh sb="0" eb="3">
       <t>ケイヤクビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>所在地（地番）</t>
@@ -384,7 +384,7 @@
     <rPh sb="4" eb="6">
       <t>チバン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>担当者別歩合割合</t>
@@ -400,11 +400,11 @@
     <rPh sb="6" eb="8">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>％</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>契約物件（名義人）</t>
@@ -417,14 +417,14 @@
     <rPh sb="5" eb="8">
       <t>メイギニン</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>契約書番号</t>
     <rPh sb="0" eb="5">
       <t>ケイヤクショバンゴウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>契約件数</t>
@@ -434,7 +434,7 @@
     <rPh sb="2" eb="4">
       <t>ケンスウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>件目</t>
@@ -444,7 +444,7 @@
     <rPh sb="1" eb="2">
       <t>メ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>不可分
@@ -458,7 +458,7 @@
     <rPh sb="6" eb="7">
       <t>チュウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>不可分一体契約特別歩合
@@ -484,7 +484,7 @@
     <rPh sb="14" eb="16">
       <t>ウム</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>部内契約件数</t>
@@ -497,7 +497,7 @@
     <rPh sb="4" eb="6">
       <t>ケンスウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　　　件目</t>
@@ -507,56 +507,56 @@
     <rPh sb="4" eb="5">
       <t>メ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1部</t>
     <rPh sb="1" eb="2">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2部</t>
     <rPh sb="1" eb="2">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3部</t>
     <rPh sb="1" eb="2">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4部</t>
     <rPh sb="1" eb="2">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5部</t>
     <rPh sb="1" eb="2">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6部</t>
     <rPh sb="1" eb="2">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8部</t>
     <rPh sb="1" eb="2">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大阪1部</t>
@@ -566,7 +566,7 @@
     <rPh sb="3" eb="4">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大阪2部</t>
@@ -576,7 +576,7 @@
     <rPh sb="3" eb="4">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大阪3部</t>
@@ -586,7 +586,7 @@
     <rPh sb="3" eb="4">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>名古屋1部</t>
@@ -596,7 +596,7 @@
     <rPh sb="4" eb="5">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>名古屋2部</t>
@@ -606,28 +606,28 @@
     <rPh sb="4" eb="5">
       <t>ブ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2ヶ月</t>
     <rPh sb="2" eb="3">
       <t>ゲツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3ヶ月</t>
     <rPh sb="2" eb="3">
       <t>ゲツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5ヶ月</t>
     <rPh sb="2" eb="3">
       <t>ゲツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>歩合金額：</t>
@@ -637,37 +637,38 @@
     <rPh sb="2" eb="4">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>$contractFormNumber$</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>$list_contractorNameDot$</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>$addressAndBlockOrBuildingNumber$</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>$addressAndBukkenNameAndContractBukkenNo$</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>$startDate_dt_kanji$</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,14 +680,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -743,14 +736,6 @@
     <font>
       <sz val="6"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1481,7 +1466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1490,270 +1475,292 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1765,68 +1772,42 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2207,9 +2188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8621565-D2C9-435C-9543-151186F78AFD}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2227,308 +2206,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="20"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:20" ht="26.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="64">
+      <c r="C2" s="18">
         <f ca="1">TODAY()</f>
-        <v>45055</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+        <v>45057</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:20" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="13" t="str">
-        <f>IF(ISERROR(IF(_xlnm.M12=_xlnm.P12,"契約・不可分一体精算申請書","契約精算申請書")),"",IF(_xlnm.M12=_xlnm.P12,"契約・不可分一体精算申請書","契約精算申請書"))</f>
+      <c r="A5" s="68" t="str">
+        <f>IF(M10="","",IF(M10=P10,"契約精算申請書【不可分成立】","契約精算申請書"))</f>
         <v/>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="68"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="38"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="60"/>
     </row>
     <row r="8" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="37" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="38"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="60"/>
     </row>
     <row r="9" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
     </row>
     <row r="10" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="58"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="58"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="41"/>
       <c r="R10" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="66"/>
     </row>
     <row r="12" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="47"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="51"/>
       <c r="L12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="47"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="51"/>
       <c r="O12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="47"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="51"/>
       <c r="R12" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
       <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="74"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1"/>
     <row r="16" spans="1:20">
@@ -2555,104 +2534,104 @@
     </row>
     <row r="17" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="18" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="60" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="61" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
     </row>
     <row r="20" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="69" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70" t="s">
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70" t="s">
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70" t="s">
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
     </row>
     <row r="21" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18">
       <c r="O22" s="6" t="s">
@@ -2660,29 +2639,69 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="O23" s="62" t="s">
+      <c r="O23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="62" t="s">
+      <c r="P23" s="13"/>
+      <c r="Q23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R23" s="63"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O24" s="21"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="22"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="15"/>
     </row>
     <row r="25" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O25" s="23"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="24"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:R7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:R13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="O24:P25"/>
@@ -2699,50 +2718,10 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:R14"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:R18"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:R13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:R9"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:R7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:R8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <extLst>
@@ -2788,240 +2767,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="20"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:18" ht="26.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="64">
+      <c r="C2" s="18">
         <f ca="1">TODAY()</f>
-        <v>45055</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+        <v>45057</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A3" s="95" t="str">
-        <f>IF(ISERROR(契約・不可分一体精算申請書!_xlnm.A3),"",契約・不可分一体精算申請書!_xlnm.A3)</f>
+      <c r="A3" s="100" t="str">
+        <f>IF(契約・不可分一体精算申請書!A3 = "","",契約・不可分一体精算申請書!A3)</f>
         <v/>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="75" t="str">
-        <f>IF(ISERROR(契約・不可分一体精算申請書!_xlnm.E3),"",契約・不可分一体精算申請書!_xlnm.E3)</f>
+      <c r="E3" s="102" t="str">
+        <f>IF(契約・不可分一体精算申請書!E3 = "","", 契約・不可分一体精算申請書!E3)</f>
         <v/>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:18" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="79"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="98"/>
     </row>
     <row r="6" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="80" t="str">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="99" t="str">
         <f>契約・不可分一体精算申請書!G7</f>
         <v>$addressAndBukkenNameAndContractBukkenNo$</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="34"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="56"/>
     </row>
     <row r="7" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="52" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="97"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="75"/>
     </row>
     <row r="8" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="98" t="str">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="76" t="str">
         <f>IF(契約・不可分一体精算申請書!G6="","",契約・不可分一体精算申請書!G6)</f>
         <v/>
       </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="100"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="78"/>
     </row>
     <row r="9" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83" t="str">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89" t="str">
         <f>IF(契約・不可分一体精算申請書!D13="","",契約・不可分一体精算申請書!D13)</f>
         <v/>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85" t="s">
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="87">
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93">
         <f>IF(D9="2ヶ月",300000,IF(D9="3ヶ月",200000,100000))</f>
         <v>100000</v>
       </c>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="89"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="95"/>
     </row>
     <row r="10" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="84"/>
     </row>
     <row r="11" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="74"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1"/>
     <row r="13" spans="1:18">
@@ -3048,80 +3027,80 @@
     </row>
     <row r="14" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="61" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
     </row>
     <row r="16" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="69" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70" t="s">
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:18">
       <c r="O18" s="6" t="s">
@@ -3129,26 +3108,26 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="O19" s="62" t="s">
+      <c r="O19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="62" t="s">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="63"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O20" s="21"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
@@ -3172,6 +3151,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:R11"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G7:R7"/>
@@ -3188,38 +3195,10 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:R17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:R11"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3301,7 +3280,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/template/契約精算申請書.xlsx
+++ b/template/契約精算申請書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C1EFC1-47E6-4983-9857-655AA87ECBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FBFDFB-5AF4-4241-B9E3-9E0EEECB9ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
   </bookViews>
   <sheets>
     <sheet name="契約・不可分一体精算申請書" sheetId="2" r:id="rId1"/>
@@ -25,15 +25,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -65,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>社長</t>
     <rPh sb="0" eb="2">
@@ -94,13 +85,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>部</t>
-    <rPh sb="0" eb="1">
-      <t>ブ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1466,8 +1450,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1475,6 +1462,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1482,37 +1481,173 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1521,22 +1656,19 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1553,175 +1685,83 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
@@ -1732,82 +1772,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2206,502 +2178,461 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="25"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="18">
+      <c r="B2" s="2"/>
+      <c r="C2" s="64">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
+        <v>45072</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:20" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="68" t="str">
+      <c r="A5" s="13" t="str">
         <f>IF(M10="","",IF(M10=P10,"契約精算申請書【不可分成立】","契約精算申請書"))</f>
         <v/>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="68"/>
+    </row>
+    <row r="7" spans="1:20" ht="33.75" customHeight="1">
+      <c r="A7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="38"/>
+    </row>
+    <row r="8" spans="1:20" ht="33.75" customHeight="1">
+      <c r="A8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22"/>
-    </row>
-    <row r="7" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A7" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
-    </row>
-    <row r="8" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A8" s="53" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="38"/>
+    </row>
+    <row r="9" spans="1:20" ht="33.75" customHeight="1">
+      <c r="A9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A10" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="33.75" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="30"/>
+    </row>
+    <row r="12" spans="1:20" ht="33.75" customHeight="1">
+      <c r="A12" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="60"/>
-    </row>
-    <row r="9" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A9" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-    </row>
-    <row r="10" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="10" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="48"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="48"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A13" s="39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A11" s="61" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="42"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A14" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="66"/>
-    </row>
-    <row r="12" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A12" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A13" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="46"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="29"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="73"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1"/>
     <row r="16" spans="1:20">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
+      <c r="A16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="18" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
     </row>
     <row r="19" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="31" t="s">
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+    </row>
+    <row r="20" spans="1:18" ht="33.75" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="23" t="s">
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24" t="s">
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="103"/>
+    </row>
+    <row r="21" spans="1:18" ht="34.5" customHeight="1">
+      <c r="A21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-    </row>
-    <row r="21" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="O22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="O22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:18">
+      <c r="O23" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="62" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="O23" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="13"/>
+      <c r="R23" s="63"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O24" s="14"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O25" s="16"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="17"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="d/R+jqaI6ApjUP8KTNLjW6knReCkU1LrLqk9GCIPsDGkORgzZTPL+q+Gp16GspKjQQFnmFtimWO3jTuoitskgQ==" saltValue="IBfG5VIULEtAvWrkuYoMSA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:R9"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:R7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:R8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:R13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="G18:R18"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="O24:P25"/>
@@ -2718,6 +2649,46 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:R14"/>
     <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:R13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:R7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2767,418 +2738,389 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="25"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="18">
+      <c r="B2" s="2"/>
+      <c r="C2" s="64">
         <f ca="1">TODAY()</f>
-        <v>45057</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
+        <v>45072</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A3" s="100" t="str">
+      <c r="A3" s="93" t="str">
         <f>IF(契約・不可分一体精算申請書!A3 = "","",契約・不可分一体精算申請書!A3)</f>
         <v/>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="102" t="str">
+      <c r="E3" s="74" t="str">
         <f>IF(契約・不可分一体精算申請書!E3 = "","", 契約・不可分一体精算申請書!E3)</f>
         <v/>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:18" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="78"/>
+    </row>
+    <row r="6" spans="1:18" ht="33.75" customHeight="1">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="98"/>
-    </row>
-    <row r="6" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A6" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="99" t="str">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="79" t="str">
         <f>契約・不可分一体精算申請書!G7</f>
         <v>$addressAndBukkenNameAndContractBukkenNo$</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="56"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34"/>
     </row>
     <row r="7" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="95"/>
+    </row>
+    <row r="8" spans="1:18" ht="33.75" customHeight="1">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="75"/>
-    </row>
-    <row r="8" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A8" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="76" t="str">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="96" t="str">
         <f>IF(契約・不可分一体精算申請書!G6="","",契約・不可分一体精算申請書!G6)</f>
         <v/>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="78"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="98"/>
     </row>
     <row r="9" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A9" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89" t="str">
+      <c r="A9" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82" t="str">
         <f>IF(契約・不可分一体精算申請書!D13="","",契約・不可分一体精算申請書!D13)</f>
         <v/>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="93">
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="85">
         <f>IF(D9="2ヶ月",300000,IF(D9="3ヶ月",200000,100000))</f>
         <v>100000</v>
       </c>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="95"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="87"/>
     </row>
     <row r="10" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="90"/>
+    </row>
+    <row r="11" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
+      <c r="A11" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
-    </row>
-    <row r="11" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A11" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="29"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="73"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1"/>
     <row r="13" spans="1:18">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="31" t="s">
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+    </row>
+    <row r="16" spans="1:18" ht="33.75" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-    </row>
-    <row r="16" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="23" t="s">
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24" t="s">
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+    </row>
+    <row r="17" spans="1:18" ht="34.5" customHeight="1">
+      <c r="A17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-    </row>
-    <row r="17" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="O18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="O18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:18">
+      <c r="O19" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="62" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="O19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="13"/>
+      <c r="R19" s="63"/>
     </row>
     <row r="20" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O20" s="14"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O21" s="16"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="17"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="ffa3vf8lFSqEOWGPd4uctDnyvXPFVc+rsaT15b/GfuGYvbt2pBFT4ZorD/+RPw2cxsJgUotNa/MplBINUh+hIw==" saltValue="Hi+4DrRmMhMk9v8lw0OZHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="44">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:R11"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:R17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G7:R7"/>
@@ -3195,6 +3137,34 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:R11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3212,71 +3182,71 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/template/契約精算申請書.xlsx
+++ b/template/契約精算申請書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FBFDFB-5AF4-4241-B9E3-9E0EEECB9ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639BBA30-7708-49AE-B5EA-786D4C085F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
   </bookViews>
@@ -1450,7 +1450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1481,6 +1481,171 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1507,279 +1672,108 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2178,231 +2172,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="20"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:20" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="64">
+      <c r="C2" s="18">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+        <v>45096</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:20" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="13" t="str">
+      <c r="A5" s="64" t="str">
         <f>IF(M10="","",IF(M10=P10,"契約精算申請書【不可分成立】","契約精算申請書"))</f>
         <v/>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="66"/>
     </row>
     <row r="6" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="38"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
     </row>
     <row r="8" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="37" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="38"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="52"/>
     </row>
     <row r="10" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="58"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="39"/>
       <c r="O10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="58"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="39"/>
       <c r="R10" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="62"/>
     </row>
     <row r="12" spans="1:20" ht="33.75" customHeight="1">
       <c r="A12" s="43" t="s">
@@ -2435,49 +2429,49 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="100"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="73"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="102"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1"/>
     <row r="16" spans="1:20">
@@ -2504,104 +2498,104 @@
     </row>
     <row r="17" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="18" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="60" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
     </row>
     <row r="19" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="61" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
     </row>
     <row r="20" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="69" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="103" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103" t="s">
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103" t="s">
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103" t="s">
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
     </row>
     <row r="21" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18">
       <c r="O22" s="11" t="s">
@@ -2609,30 +2603,70 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="O23" s="62" t="s">
+      <c r="O23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="62" t="s">
+      <c r="P23" s="13"/>
+      <c r="Q23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="63"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O24" s="21"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="22"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="15"/>
     </row>
     <row r="25" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O25" s="23"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="24"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d/R+jqaI6ApjUP8KTNLjW6knReCkU1LrLqk9GCIPsDGkORgzZTPL+q+Gp16GspKjQQFnmFtimWO3jTuoitskgQ==" saltValue="IBfG5VIULEtAvWrkuYoMSA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5DkGAR2wsgLvNmbBrcahgj924fSxCSObqWA+vkuPz+iOnj1HncNqfD4W95ISslfW+lb1RV03LAy9+l7TWLjd5g==" saltValue="THsxP3I7Q1sdXS+N56zahg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:R7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:R13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="O24:P25"/>
@@ -2649,46 +2683,6 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:R14"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:R18"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:R13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:R9"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:R7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:R8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2738,238 +2732,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="20"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:18" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="64">
+      <c r="C2" s="18">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+        <v>45096</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A3" s="93" t="str">
+      <c r="A3" s="71" t="str">
         <f>IF(契約・不可分一体精算申請書!A3 = "","",契約・不可分一体精算申請書!A3)</f>
         <v/>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="74" t="str">
+      <c r="E3" s="94" t="str">
         <f>IF(契約・不可分一体精算申請書!E3 = "","", 契約・不可分一体精算申請書!E3)</f>
         <v/>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:18" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="78"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="97"/>
     </row>
     <row r="6" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="79" t="str">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="98" t="str">
         <f>契約・不可分一体精算申請書!G7</f>
         <v>$addressAndBukkenNameAndContractBukkenNo$</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="34"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="52"/>
     </row>
     <row r="7" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="52" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="95"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="73"/>
     </row>
     <row r="8" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="96" t="str">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="74" t="str">
         <f>IF(契約・不可分一体精算申請書!G6="","",契約・不可分一体精算申請書!G6)</f>
         <v/>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="98"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="76"/>
     </row>
     <row r="9" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82" t="str">
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87" t="str">
         <f>IF(契約・不可分一体精算申請書!D13="","",契約・不可分一体精算申請書!D13)</f>
         <v/>
       </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="83" t="s">
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="85">
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="91">
         <f>IF(D9="2ヶ月",300000,IF(D9="3ヶ月",200000,100000))</f>
         <v>100000</v>
       </c>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="87"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="93"/>
     </row>
     <row r="10" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="90"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
     </row>
     <row r="11" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="73"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="102"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1"/>
     <row r="13" spans="1:18">
@@ -2996,80 +2990,80 @@
     </row>
     <row r="14" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="61" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
     </row>
     <row r="16" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="69" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="103" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103" t="s">
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
     </row>
     <row r="17" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:18">
       <c r="O18" s="11" t="s">
@@ -3077,26 +3071,26 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="O19" s="62" t="s">
+      <c r="O19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="62" t="s">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="63"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O20" s="21"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
@@ -3119,8 +3113,36 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ffa3vf8lFSqEOWGPd4uctDnyvXPFVc+rsaT15b/GfuGYvbt2pBFT4ZorD/+RPw2cxsJgUotNa/MplBINUh+hIw==" saltValue="Hi+4DrRmMhMk9v8lw0OZHg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z6OwYWm90nCZguH1bVWnq4lCVHliY2rue/Jcib/vpVpxp8j5W5ptb+zsUAok3D+WjU024T/Oz5pbMWXeSnzMhw==" saltValue="D9sk8m8Zcc0GhnIuVJW4Bg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="44">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:R11"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G7:R7"/>
@@ -3137,34 +3159,6 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:R17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:R11"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/template/契約精算申請書.xlsx
+++ b/template/契約精算申請書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639BBA30-7708-49AE-B5EA-786D4C085F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0555005-9E7C-4ED0-BFBA-D247373EA7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
   </bookViews>
@@ -1450,7 +1450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1481,10 +1481,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1499,44 +1522,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
@@ -1574,103 +1634,111 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1699,80 +1767,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2172,306 +2188,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="25"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="18">
+      <c r="C2" s="63">
         <f ca="1">TODAY()</f>
-        <v>45096</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
+        <v>45097</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:20" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="64" t="str">
+      <c r="A5" s="13" t="str">
         <f>IF(M10="","",IF(M10=P10,"契約精算申請書【不可分成立】","契約精算申請書"))</f>
         <v/>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="66"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="67"/>
     </row>
     <row r="7" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="37"/>
     </row>
     <row r="8" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="55" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="37"/>
     </row>
     <row r="9" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="52"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="33"/>
     </row>
     <row r="10" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="36" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="39"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="57"/>
       <c r="O10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="39"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="57"/>
       <c r="R10" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="62"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="102"/>
     </row>
     <row r="12" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="47"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="104"/>
       <c r="O12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="47"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="104"/>
       <c r="R12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="100"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="102"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="73"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1"/>
     <row r="16" spans="1:20">
@@ -2498,104 +2514,104 @@
     </row>
     <row r="17" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="18" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="28" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
     </row>
     <row r="19" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="29" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
     </row>
     <row r="20" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="23" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24" t="s">
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24" t="s">
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24" t="s">
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24" t="s">
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
     </row>
     <row r="21" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:18">
       <c r="O22" s="11" t="s">
@@ -2603,70 +2619,30 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="12" t="s">
+      <c r="P23" s="62"/>
+      <c r="Q23" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="13"/>
+      <c r="R23" s="62"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O24" s="14"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O25" s="16"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="17"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5DkGAR2wsgLvNmbBrcahgj924fSxCSObqWA+vkuPz+iOnj1HncNqfD4W95ISslfW+lb1RV03LAy9+l7TWLjd5g==" saltValue="THsxP3I7Q1sdXS+N56zahg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uYt/HfgzDvjuiIUsKFOniS6UJIQIlube1N5ZFut+dyHm5Br2Mflhw6ZXVRuPXnXDAovI+A4kjCJPDxz4Uwxzhg==" saltValue="ullD8uGVzRF2NkVK9ddAPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:R9"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:R7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:R8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:R13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="G18:R18"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="O24:P25"/>
@@ -2683,6 +2659,46 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:R14"/>
     <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:R13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:R7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2732,238 +2748,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="25"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="18">
+      <c r="C2" s="63">
         <f ca="1">TODAY()</f>
-        <v>45096</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
+        <v>45097</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A3" s="71" t="str">
+      <c r="A3" s="92" t="str">
         <f>IF(契約・不可分一体精算申請書!A3 = "","",契約・不可分一体精算申請書!A3)</f>
         <v/>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="93"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="94" t="str">
+      <c r="E3" s="74" t="str">
         <f>IF(契約・不可分一体精算申請書!E3 = "","", 契約・不可分一体精算申請書!E3)</f>
         <v/>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:18" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="97"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="78"/>
     </row>
     <row r="6" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="98" t="str">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="79" t="str">
         <f>契約・不可分一体精算申請書!G7</f>
         <v>$addressAndBukkenNameAndContractBukkenNo$</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="52"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33"/>
     </row>
     <row r="7" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="33" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="73"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="94"/>
     </row>
     <row r="8" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="74" t="str">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="95" t="str">
         <f>IF(契約・不可分一体精算申請書!G6="","",契約・不可分一体精算申請書!G6)</f>
         <v/>
       </c>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="76"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="97"/>
     </row>
     <row r="9" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87" t="str">
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82" t="str">
         <f>IF(契約・不可分一体精算申請書!D13="","",契約・不可分一体精算申請書!D13)</f>
         <v/>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89" t="s">
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="91">
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="85">
         <f>IF(D9="2ヶ月",300000,IF(D9="3ヶ月",200000,100000))</f>
         <v>100000</v>
       </c>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="93"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="87"/>
     </row>
     <row r="10" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="82"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="106"/>
     </row>
     <row r="11" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="102"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="73"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1"/>
     <row r="13" spans="1:18">
@@ -2990,80 +3006,80 @@
     </row>
     <row r="14" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="29" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
     </row>
     <row r="16" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="23" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24" t="s">
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24" t="s">
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24" t="s">
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24" t="s">
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
     </row>
     <row r="17" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:18">
       <c r="O18" s="11" t="s">
@@ -3071,26 +3087,26 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="O19" s="12" t="s">
+      <c r="O19" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="12" t="s">
+      <c r="P19" s="62"/>
+      <c r="Q19" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="13"/>
+      <c r="R19" s="62"/>
     </row>
     <row r="20" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O20" s="14"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O21" s="16"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="17"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
@@ -3113,36 +3129,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="z6OwYWm90nCZguH1bVWnq4lCVHliY2rue/Jcib/vpVpxp8j5W5ptb+zsUAok3D+WjU024T/Oz5pbMWXeSnzMhw==" saltValue="D9sk8m8Zcc0GhnIuVJW4Bg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VtpJPz6DxLxLVbX2pUPF0z7JXcwTcPdAiP/6SECi46mGeE0AqDIJD2Jbg07jw4AVlFF/Lssa1Eppck2tS4Wdcw==" saltValue="WOc73J03cx1I5Vn1YUPY+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="44">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:R11"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:R17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G7:R7"/>
@@ -3159,6 +3147,34 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:R11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/template/契約精算申請書.xlsx
+++ b/template/契約精算申請書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0555005-9E7C-4ED0-BFBA-D247373EA7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209111E-7190-4E13-BBCC-B02023F82374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
   </bookViews>
   <sheets>
     <sheet name="契約・不可分一体精算申請書" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -56,28 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
-  <si>
-    <t>社長</t>
-    <rPh sb="0" eb="2">
-      <t>シャチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本部長</t>
-    <rPh sb="0" eb="3">
-      <t>ホンブチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>部長</t>
-    <rPh sb="0" eb="2">
-      <t>ブチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>申請日</t>
     <rPh sb="0" eb="2">
@@ -264,16 +252,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ショウニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>確認者</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1481,6 +1459,199 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1507,200 +1678,54 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1711,6 +1736,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1726,70 +1754,20 @@
     <xf numFmtId="6" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2188,311 +2166,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="M1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="20"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:20" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="63">
+      <c r="C2" s="18">
         <f ca="1">TODAY()</f>
-        <v>45097</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+        <v>45757</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
       <c r="I3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:20" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="13" t="str">
+      <c r="A5" s="71" t="str">
         <f>IF(M10="","",IF(M10=P10,"契約精算申請書【不可分成立】","契約精算申請書"))</f>
         <v/>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="73"/>
     </row>
     <row r="6" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="22"/>
+    </row>
+    <row r="7" spans="1:20" ht="33.75" customHeight="1">
+      <c r="A7" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="62"/>
+    </row>
+    <row r="8" spans="1:20" ht="33.75" customHeight="1">
+      <c r="A8" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="62"/>
+    </row>
+    <row r="9" spans="1:20" ht="33.75" customHeight="1">
+      <c r="A9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="67"/>
-    </row>
-    <row r="7" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="37"/>
-    </row>
-    <row r="8" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="58"/>
+    </row>
+    <row r="10" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="37"/>
-    </row>
-    <row r="9" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="33"/>
-    </row>
-    <row r="10" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A10" s="48" t="s">
+    </row>
+    <row r="11" spans="1:20" ht="33.75" customHeight="1">
+      <c r="A11" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="69"/>
+    </row>
+    <row r="12" spans="1:20" ht="33.75" customHeight="1">
+      <c r="A12" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="52"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="53"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="37.5" customHeight="1">
+      <c r="A13" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="102"/>
-    </row>
-    <row r="12" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A12" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="103"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A13" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="41"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A14" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="73"/>
+      <c r="A14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1"/>
     <row r="16" spans="1:20">
       <c r="A16" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2514,135 +2492,189 @@
     </row>
     <row r="17" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="18" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
+      <c r="A18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+    </row>
+    <row r="20" spans="1:18" ht="33.75" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="60" t="s">
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+    </row>
+    <row r="21" spans="1:18" ht="34.5" customHeight="1">
+      <c r="A21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-    </row>
-    <row r="20" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="68" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="K22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-    </row>
-    <row r="21" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A21" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="O22" s="11" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="O23" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="62"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O24" s="21"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="22"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="15"/>
     </row>
     <row r="25" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O25" s="23"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="24"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uYt/HfgzDvjuiIUsKFOniS6UJIQIlube1N5ZFut+dyHm5Br2Mflhw6ZXVRuPXnXDAovI+A4kjCJPDxz4Uwxzhg==" saltValue="ullD8uGVzRF2NkVK9ddAPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="56">
+  <sheetProtection algorithmName="SHA-512" hashValue="NSI/ps+ImLlkKJhffw44lZaWx0nRQXA0dIZV0mGDotC+/ikxz77Zfhekv/MA5XGT2pYuJKWzNYXFNsaxa0RKSQ==" saltValue="d8H2Mdh3ifqqlID78jUOsw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="62">
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="M24:N25"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:R7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:R13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="O24:P25"/>
@@ -2659,46 +2691,6 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:R14"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:R18"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:R13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:R9"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:R7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:R8"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2748,243 +2740,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="M1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="20"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:18" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="63">
+      <c r="C2" s="18">
         <f ca="1">TODAY()</f>
-        <v>45097</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+        <v>45757</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A3" s="92" t="str">
+      <c r="A3" s="78" t="str">
         <f>IF(契約・不可分一体精算申請書!A3 = "","",契約・不可分一体精算申請書!A3)</f>
         <v/>
       </c>
-      <c r="B3" s="93"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="74" t="str">
+        <v>1</v>
+      </c>
+      <c r="E3" s="102" t="str">
         <f>IF(契約・不可分一体精算申請書!E3 = "","", 契約・不可分一体精算申請書!E3)</f>
         <v/>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:18" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="78"/>
+      <c r="A5" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="105"/>
     </row>
     <row r="6" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="79" t="str">
+      <c r="A6" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="106" t="str">
         <f>契約・不可分一体精算申請書!G7</f>
         <v>$addressAndBukkenNameAndContractBukkenNo$</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="33"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="58"/>
     </row>
     <row r="7" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="94"/>
+      <c r="A7" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="80"/>
     </row>
     <row r="8" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="95" t="str">
+      <c r="A8" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="81" t="str">
         <f>IF(契約・不可分一体精算申請書!G6="","",契約・不可分一体精算申請書!G6)</f>
         <v/>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="97"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="83"/>
     </row>
     <row r="9" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A9" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82" t="str">
+      <c r="A9" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95" t="str">
         <f>IF(契約・不可分一体精算申請書!D13="","",契約・不可分一体精算申請書!D13)</f>
         <v/>
       </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="85">
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99">
         <f>IF(D9="2ヶ月",300000,IF(D9="3ヶ月",200000,100000))</f>
         <v>100000</v>
       </c>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="87"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="101"/>
     </row>
     <row r="10" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A10" s="98" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="106"/>
+      <c r="A10" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="90"/>
     </row>
     <row r="11" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A11" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="73"/>
+      <c r="A11" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1"/>
     <row r="13" spans="1:18">
       <c r="A13" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3006,131 +2998,173 @@
     </row>
     <row r="14" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+    </row>
+    <row r="16" spans="1:18" ht="33.75" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="60" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+    </row>
+    <row r="17" spans="1:18" ht="34.5" customHeight="1">
+      <c r="A17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-    </row>
-    <row r="16" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="68" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="K18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-    </row>
-    <row r="17" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="O18" s="11" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="O19" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="62"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O20" s="21"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VtpJPz6DxLxLVbX2pUPF0z7JXcwTcPdAiP/6SECi46mGeE0AqDIJD2Jbg07jw4AVlFF/Lssa1Eppck2tS4Wdcw==" saltValue="WOc73J03cx1I5Vn1YUPY+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="44">
+  <sheetProtection algorithmName="SHA-512" hashValue="1BKcvqI7fJWxeFI6pIbVr8eVza83gKOjtOgz6V1ZneV4pI5txlC8Q2QVkNSBT/GqhHinsWn9LxrTSmKk4mMBUQ==" saltValue="TRJjyyxiClQfRwaeOqFsSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="50">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:R11"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G7:R7"/>
@@ -3147,34 +3181,6 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:R17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:R11"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3192,71 +3198,71 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/template/契約精算申請書.xlsx
+++ b/template/契約精算申請書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E209111E-7190-4E13-BBCC-B02023F82374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C7D9B6-D077-4555-8B38-F60CC9F6C09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>申請日</t>
     <rPh sb="0" eb="2">
@@ -619,6 +619,37 @@
   </si>
   <si>
     <t>$startDate_dt_kanji$</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社長</t>
+    <rPh sb="0" eb="2">
+      <t>シャチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本部長</t>
+    <rPh sb="0" eb="3">
+      <t>ホンブチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部長</t>
+    <rPh sb="0" eb="2">
+      <t>ブチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認者</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1428,7 +1459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1459,22 +1490,185 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1500,9 +1694,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
@@ -1518,165 +1709,69 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1705,69 +1800,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1847,6 +1881,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2166,306 +2204,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="18">
+      <c r="C2" s="67">
         <f ca="1">TODAY()</f>
-        <v>45757</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
+        <v>45763</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:20" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="71" t="str">
+      <c r="A5" s="14" t="str">
         <f>IF(M10="","",IF(M10=P10,"契約精算申請書【不可分成立】","契約精算申請書"))</f>
         <v/>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="73"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="71"/>
     </row>
     <row r="7" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="62"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="39"/>
     </row>
     <row r="8" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="61" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="62"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="39"/>
     </row>
     <row r="9" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="58"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="35"/>
     </row>
     <row r="10" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="61"/>
       <c r="O10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="41"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="61"/>
       <c r="R10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="69"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31"/>
     </row>
     <row r="12" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
       <c r="I12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="51"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="54"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="51"/>
       <c r="O12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51"/>
       <c r="R12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="46"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="43"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="29"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="77"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1"/>
     <row r="16" spans="1:20">
@@ -2492,189 +2536,147 @@
     </row>
     <row r="17" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="18" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="30" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
     </row>
     <row r="19" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="31" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
     </row>
     <row r="20" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="23" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24" t="s">
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24" t="s">
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24" t="s">
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24" t="s">
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
     </row>
     <row r="21" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="K22" s="11" t="s">
+      <c r="O22" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="13"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="R23" s="66"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" customHeight="1">
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="22"/>
     </row>
     <row r="25" spans="1:18" ht="26.25" customHeight="1">
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="17"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NSI/ps+ImLlkKJhffw44lZaWx0nRQXA0dIZV0mGDotC+/ikxz77Zfhekv/MA5XGT2pYuJKWzNYXFNsaxa0RKSQ==" saltValue="d8H2Mdh3ifqqlID78jUOsw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="62">
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L25"/>
-    <mergeCell ref="M24:N25"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:R9"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:R7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:R8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:R13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="G18:R18"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z/Yn9HttRCpxeGK+gUnoGfYqmUU2W7ttuUB+84cxHM+KbUj1yi+NNhdNTdW56B094agDbzH1qQ1dJUHOCPrQ0Q==" saltValue="SIN14KgqYTCBin0vmWI9PQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="56">
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="O24:P25"/>
@@ -2691,6 +2693,46 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:R14"/>
     <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:R7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:R13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2740,238 +2782,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:18" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="18">
+      <c r="C2" s="67">
         <f ca="1">TODAY()</f>
-        <v>45757</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
+        <v>45763</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A3" s="78" t="str">
+      <c r="A3" s="98" t="str">
         <f>IF(契約・不可分一体精算申請書!A3 = "","",契約・不可分一体精算申請書!A3)</f>
         <v/>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="102" t="str">
+      <c r="E3" s="78" t="str">
         <f>IF(契約・不可分一体精算申請書!E3 = "","", 契約・不可分一体精算申請書!E3)</f>
         <v/>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:18" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="105"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="82"/>
     </row>
     <row r="6" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="106" t="str">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="83" t="str">
         <f>契約・不可分一体精算申請書!G7</f>
         <v>$addressAndBukkenNameAndContractBukkenNo$</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="58"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="35"/>
     </row>
     <row r="7" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="35" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="80"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="81" t="str">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="101" t="str">
         <f>IF(契約・不可分一体精算申請書!G6="","",契約・不可分一体精算申請書!G6)</f>
         <v/>
       </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="83"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="103"/>
     </row>
     <row r="9" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95" t="str">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86" t="str">
         <f>IF(契約・不可分一体精算申請書!D13="","",契約・不可分一体精算申請書!D13)</f>
         <v/>
       </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97" t="s">
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99">
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="89">
         <f>IF(D9="2ヶ月",300000,IF(D9="3ヶ月",200000,100000))</f>
         <v>100000</v>
       </c>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="101"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="91"/>
     </row>
     <row r="10" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="90"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
     </row>
     <row r="11" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="29"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="77"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1"/>
     <row r="13" spans="1:18">
@@ -2998,115 +3046,119 @@
     </row>
     <row r="14" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="31" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
     </row>
     <row r="16" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="23" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24" t="s">
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24" t="s">
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24" t="s">
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24" t="s">
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
     </row>
     <row r="17" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="K18" s="11" t="s">
+      <c r="O18" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="K19" s="12"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="13"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="R19" s="66"/>
     </row>
     <row r="20" spans="1:18" ht="26.25" customHeight="1">
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" customHeight="1">
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="17"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
@@ -3129,42 +3181,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1BKcvqI7fJWxeFI6pIbVr8eVza83gKOjtOgz6V1ZneV4pI5txlC8Q2QVkNSBT/GqhHinsWn9LxrTSmKk4mMBUQ==" saltValue="TRJjyyxiClQfRwaeOqFsSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="50">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:R11"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:R17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2qipXDvxnhbh7sUSNTdAfwY3tjinenX0ey+OW2KTP0AJjk9yMOIthY3lA0pB7FtRxNHee+PP/Xo/Y3NX/ZoIJQ==" saltValue="24Gveuh8203BGAoUqWRZOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="44">
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G7:R7"/>
@@ -3181,6 +3199,34 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:R11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/template/契約精算申請書.xlsx
+++ b/template/契約精算申請書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hishi\Desktop\ws\MetoPro\_kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C7D9B6-D077-4555-8B38-F60CC9F6C09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42646FE-E435-4582-9D30-E5510A73725E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>申請日</t>
     <rPh sb="0" eb="2">
@@ -514,13 +514,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>8部</t>
-    <rPh sb="1" eb="2">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>大阪1部</t>
     <rPh sb="0" eb="2">
       <t>オオサカ</t>
@@ -551,26 +544,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名古屋1部</t>
-    <rPh sb="0" eb="3">
-      <t>ナゴヤ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名古屋2部</t>
-    <rPh sb="0" eb="3">
-      <t>ナゴヤ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2ヶ月</t>
     <rPh sb="2" eb="3">
       <t>ゲツ</t>
@@ -649,6 +622,20 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名古屋</t>
+    <rPh sb="0" eb="3">
+      <t>ナゴヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都</t>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1459,7 +1446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1493,6 +1480,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1519,39 +1589,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1579,6 +1616,42 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1623,109 +1696,54 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1736,6 +1754,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1751,57 +1772,20 @@
     <xf numFmtId="6" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1883,14 +1867,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1928,7 +1908,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2034,7 +2014,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2176,7 +2156,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2186,7 +2166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8621565-D2C9-435C-9543-151186F78AFD}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2204,18 +2186,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
       <c r="M1" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P1" s="12"/>
       <c r="Q1" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R1" s="12"/>
     </row>
@@ -2224,292 +2204,288 @@
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="67">
+      <c r="C2" s="17">
         <f ca="1">TODAY()</f>
-        <v>45763</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+        <v>45973</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="30"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:20" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="14" t="str">
+      <c r="A5" s="39" t="str">
         <f>IF(M10="","",IF(M10=P10,"契約精算申請書【不可分成立】","契約精算申請書"))</f>
         <v/>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="16"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="71"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="21"/>
     </row>
     <row r="7" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="39"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="54"/>
     </row>
     <row r="8" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="39"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="54"/>
     </row>
     <row r="9" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="35"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="50"/>
     </row>
     <row r="10" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="64"/>
       <c r="O10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="61"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="64"/>
       <c r="R10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="46"/>
     </row>
     <row r="12" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
       <c r="I12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="48"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="74"/>
       <c r="L12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="51"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
       <c r="O12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="51"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="77"/>
       <c r="R12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="43"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="69"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="77"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="16"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1"/>
     <row r="16" spans="1:20">
@@ -2544,20 +2520,20 @@
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="63" t="s">
+      <c r="G18" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
     </row>
     <row r="19" spans="1:18" ht="33.75" customHeight="1">
       <c r="A19" s="12" t="s">
@@ -2565,53 +2541,53 @@
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
     </row>
     <row r="20" spans="1:18" ht="33.75" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73" t="s">
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73" t="s">
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73" t="s">
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" spans="1:18" ht="34.5" customHeight="1">
       <c r="A21" s="12" t="s">
@@ -2641,46 +2617,64 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
       <c r="O23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="R23" s="66"/>
+      <c r="R23" s="26"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" customHeight="1">
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="22"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="28"/>
     </row>
     <row r="25" spans="1:18" ht="26.25" customHeight="1">
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="24"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="30"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z/Yn9HttRCpxeGK+gUnoGfYqmUU2W7ttuUB+84cxHM+KbUj1yi+NNhdNTdW56B094agDbzH1qQ1dJUHOCPrQ0Q==" saltValue="SIN14KgqYTCBin0vmWI9PQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:R13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:R7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="O24:P25"/>
     <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="G6:R6"/>
     <mergeCell ref="D20:F20"/>
@@ -2688,51 +2682,20 @@
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="G21:R21"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:R14"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:R18"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:R9"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:R7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:R8"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:R13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2742,17 +2705,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B17213BF-6B2D-4453-A91C-055DD5004D30}">
-          <x14:formula1>
-            <xm:f>Sheet3!$A$1:$A$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:B3</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E1EBE4A2-203A-4AC2-A92E-91AB364FBB4C}">
           <x14:formula1>
             <xm:f>Sheet3!$C$1:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>D13:R13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B17213BF-6B2D-4453-A91C-055DD5004D30}">
+          <x14:formula1>
+            <xm:f>Sheet3!$A$1:$A$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2764,7 +2727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2F160E-8C9E-463D-AAE0-231292C76DA5}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2782,18 +2747,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
       <c r="M1" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P1" s="12"/>
       <c r="Q1" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R1" s="12"/>
     </row>
@@ -2802,224 +2765,220 @@
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="67">
+      <c r="C2" s="17">
         <f ca="1">TODAY()</f>
-        <v>45763</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+        <v>45973</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A3" s="98" t="str">
+      <c r="A3" s="78" t="str">
         <f>IF(契約・不可分一体精算申請書!A3 = "","",契約・不可分一体精算申請書!A3)</f>
         <v/>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="78" t="str">
+      <c r="E3" s="102" t="str">
         <f>IF(契約・不可分一体精算申請書!E3 = "","", 契約・不可分一体精算申請書!E3)</f>
         <v/>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="30"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:18" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="82"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="105"/>
     </row>
     <row r="6" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="83" t="str">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="106" t="str">
         <f>契約・不可分一体精算申請書!G7</f>
         <v>$addressAndBukkenNameAndContractBukkenNo$</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="35"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="100"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="80"/>
     </row>
     <row r="8" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="101" t="str">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="81" t="str">
         <f>IF(契約・不可分一体精算申請書!G6="","",契約・不可分一体精算申請書!G6)</f>
         <v/>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="103"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="83"/>
     </row>
     <row r="9" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86" t="str">
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95" t="str">
         <f>IF(契約・不可分一体精算申請書!D13="","",契約・不可分一体精算申請書!D13)</f>
         <v/>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="89">
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99">
         <f>IF(D9="2ヶ月",300000,IF(D9="3ヶ月",200000,100000))</f>
         <v>100000</v>
       </c>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="91"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="101"/>
     </row>
     <row r="10" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="90"/>
     </row>
     <row r="11" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="77"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="16"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1"/>
     <row r="13" spans="1:18">
@@ -3051,53 +3010,53 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:18" ht="33.75" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73" t="s">
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73" t="s">
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="1:18" ht="34.5" customHeight="1">
       <c r="A17" s="12" t="s">
@@ -3127,38 +3086,26 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="65" t="s">
+      <c r="O19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="R19" s="66"/>
+      <c r="R19" s="26"/>
     </row>
     <row r="20" spans="1:18" ht="26.25" customHeight="1">
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="28"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" customHeight="1">
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="30"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
@@ -3183,6 +3130,34 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2qipXDvxnhbh7sUSNTdAfwY3tjinenX0ey+OW2KTP0AJjk9yMOIthY3lA0pB7FtRxNHee+PP/Xo/Y3NX/ZoIJQ==" saltValue="24Gveuh8203BGAoUqWRZOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="44">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:R11"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G7:R7"/>
@@ -3199,34 +3174,6 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:R17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:R11"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3236,9 +3183,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8956353-C046-4A77-8EE0-96F5C5881A6C}">
-  <dimension ref="A2:C13"/>
+  <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -3247,7 +3196,7 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3255,7 +3204,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3263,7 +3212,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3298,17 +3247,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/template/契約精算申請書.xlsx
+++ b/template/契約精算申請書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hishi\Desktop\ws\MetoPro\_kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42646FE-E435-4582-9D30-E5510A73725E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9694F0F-9DD5-4C9F-9BD7-CF6E049D0415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
   </bookViews>
@@ -1477,8 +1477,210 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
@@ -1494,207 +1696,69 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1722,70 +1786,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2167,7 +2167,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2186,306 +2186,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="12"/>
+      <c r="R1" s="46"/>
     </row>
     <row r="2" spans="1:20" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="17">
+      <c r="C2" s="54">
         <f ca="1">TODAY()</f>
         <v>45973</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="48"/>
     </row>
     <row r="3" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="30"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:20" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="39" t="str">
+      <c r="A5" s="68" t="str">
         <f>IF(M10="","",IF(M10=P10,"契約精算申請書【不可分成立】","契約精算申請書"))</f>
         <v/>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="21"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="58"/>
     </row>
     <row r="7" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="54"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="53" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="54"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
     </row>
     <row r="9" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="50"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="30"/>
     </row>
     <row r="10" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="64"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="44"/>
       <c r="O10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="64"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="44"/>
       <c r="R10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="46"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="75"/>
-      <c r="K12" s="74"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="76"/>
-      <c r="N12" s="77"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="77"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="69"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="16"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="77"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1"/>
     <row r="16" spans="1:20">
@@ -2512,104 +2512,104 @@
     </row>
     <row r="17" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="18" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="37" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
     </row>
     <row r="19" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="24" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
     </row>
     <row r="20" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="22" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23" t="s">
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23" t="s">
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23" t="s">
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23" t="s">
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
     </row>
     <row r="21" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
     </row>
     <row r="22" spans="1:18">
       <c r="O22" s="11" t="s">
@@ -2617,64 +2617,32 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="25" t="s">
+      <c r="P23" s="46"/>
+      <c r="Q23" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="R23" s="26"/>
+      <c r="R23" s="52"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="28"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="48"/>
     </row>
     <row r="25" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="30"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:R13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:R9"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:R7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:R8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:R14"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="G6:R6"/>
     <mergeCell ref="D20:F20"/>
@@ -2691,11 +2659,43 @@
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="A5:R5"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="G21:R21"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:R14"/>
-    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:R7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:R13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2728,7 +2728,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A5" sqref="A5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2747,238 +2747,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="12"/>
+      <c r="R1" s="46"/>
     </row>
     <row r="2" spans="1:18" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="17">
+      <c r="C2" s="54">
         <f ca="1">TODAY()</f>
         <v>45973</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="48"/>
     </row>
     <row r="3" spans="1:18" ht="26.25" customHeight="1">
-      <c r="A3" s="78" t="str">
+      <c r="A3" s="98" t="str">
         <f>IF(契約・不可分一体精算申請書!A3 = "","",契約・不可分一体精算申請書!A3)</f>
         <v/>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="102" t="str">
+      <c r="E3" s="78" t="str">
         <f>IF(契約・不可分一体精算申請書!E3 = "","", 契約・不可分一体精算申請書!E3)</f>
         <v/>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="30"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:18" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="105"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="82"/>
     </row>
     <row r="6" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="106" t="str">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="83" t="str">
         <f>契約・不可分一体精算申請書!G7</f>
         <v>$addressAndBukkenNameAndContractBukkenNo$</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="50"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="30"/>
     </row>
     <row r="7" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="58" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="80"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="81" t="str">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="101" t="str">
         <f>IF(契約・不可分一体精算申請書!G6="","",契約・不可分一体精算申請書!G6)</f>
         <v/>
       </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="83"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="103"/>
     </row>
     <row r="9" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95" t="str">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86" t="str">
         <f>IF(契約・不可分一体精算申請書!D13="","",契約・不可分一体精算申請書!D13)</f>
         <v/>
       </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97" t="s">
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99">
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="89">
         <f>IF(D9="2ヶ月",300000,IF(D9="3ヶ月",200000,100000))</f>
         <v>100000</v>
       </c>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="101"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="91"/>
     </row>
     <row r="10" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="90"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
     </row>
     <row r="11" spans="1:18" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="16"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="77"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1"/>
     <row r="13" spans="1:18">
@@ -3005,80 +3005,80 @@
     </row>
     <row r="14" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="24" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
     </row>
     <row r="16" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="22" t="s">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23" t="s">
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23" t="s">
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23" t="s">
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23" t="s">
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
     </row>
     <row r="17" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:18">
       <c r="O18" s="11" t="s">
@@ -3086,26 +3086,26 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="25" t="s">
+      <c r="P19" s="52"/>
+      <c r="Q19" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="R19" s="26"/>
+      <c r="R19" s="52"/>
     </row>
     <row r="20" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O20" s="27"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="28"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="48"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O21" s="29"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="30"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="50"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
@@ -3130,34 +3130,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2qipXDvxnhbh7sUSNTdAfwY3tjinenX0ey+OW2KTP0AJjk9yMOIthY3lA0pB7FtRxNHee+PP/Xo/Y3NX/ZoIJQ==" saltValue="24Gveuh8203BGAoUqWRZOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="44">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:R11"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:R17"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G7:R7"/>
@@ -3174,6 +3146,34 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:R11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3186,7 +3186,7 @@
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/template/契約精算申請書.xlsx
+++ b/template/契約精算申請書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hishi\Desktop\ws\MetoPro\_kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9694F0F-9DD5-4C9F-9BD7-CF6E049D0415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A5A78-810D-4DB5-8A22-1FB0C93F9213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>申請日</t>
     <rPh sb="0" eb="2">
@@ -636,6 +636,13 @@
     <t>京都</t>
     <rPh sb="0" eb="2">
       <t>キョウト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>福岡</t>
+    <rPh sb="0" eb="2">
+      <t>フクオカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1477,6 +1484,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1520,18 +1554,122 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
@@ -1564,137 +1702,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2186,18 +2193,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="46"/>
+      <c r="R1" s="32"/>
     </row>
     <row r="2" spans="1:20" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2214,67 +2221,67 @@
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="48"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:20" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="68" t="str">
+      <c r="A5" s="60" t="str">
         <f>IF(M10="","",IF(M10=P10,"契約精算申請書【不可分成立】","契約精算申請書"))</f>
         <v/>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="62"/>
     </row>
     <row r="6" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
@@ -2289,203 +2296,203 @@
       <c r="R6" s="58"/>
     </row>
     <row r="7" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="74"/>
     </row>
     <row r="8" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="33" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="74"/>
     </row>
     <row r="9" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="70"/>
     </row>
     <row r="10" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="44"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
       <c r="O10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="44"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="26"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="47"/>
     </row>
     <row r="12" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="20"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="31"/>
       <c r="R12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="23"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="77"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="53"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1"/>
     <row r="16" spans="1:20">
@@ -2512,104 +2519,104 @@
     </row>
     <row r="17" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="18" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="66" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
     </row>
     <row r="19" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="53" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
     </row>
     <row r="20" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="59" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60" t="s">
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60" t="s">
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60" t="s">
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60" t="s">
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
     </row>
     <row r="21" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
     </row>
     <row r="22" spans="1:18">
       <c r="O22" s="11" t="s">
@@ -2617,26 +2624,26 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="O23" s="46" t="s">
+      <c r="O23" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="51" t="s">
+      <c r="P23" s="32"/>
+      <c r="Q23" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="R23" s="52"/>
+      <c r="R23" s="38"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="48"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="34"/>
     </row>
     <row r="25" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="50"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -2645,20 +2652,24 @@
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="G6:R6"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:R9"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:R7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="P11:R11"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="G18:R18"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="O24:P25"/>
@@ -2670,21 +2681,13 @@
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="G21:R21"/>
+    <mergeCell ref="P19:R19"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="M2:N3"/>
     <mergeCell ref="O2:P3"/>
     <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:R9"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:R7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:R8"/>
-    <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="M10:N10"/>
@@ -2696,6 +2699,10 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2713,7 +2720,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B17213BF-6B2D-4453-A91C-055DD5004D30}">
           <x14:formula1>
-            <xm:f>Sheet3!$A$1:$A$12</xm:f>
+            <xm:f>Sheet3!$A$1:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>A3:B3</xm:sqref>
         </x14:dataValidation>
@@ -2728,7 +2735,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:R5"/>
+      <selection activeCell="G8" sqref="G8:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2747,18 +2754,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="46"/>
+      <c r="R1" s="32"/>
     </row>
     <row r="2" spans="1:18" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2775,12 +2782,12 @@
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="48"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:18" ht="26.25" customHeight="1">
       <c r="A3" s="98" t="str">
@@ -2802,12 +2809,12 @@
       <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="50"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:18" ht="40.5" customHeight="1" thickBot="1">
@@ -2833,63 +2840,63 @@
       <c r="R5" s="82"/>
     </row>
     <row r="6" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="83" t="str">
         <f>契約・不可分一体精算申請書!G7</f>
         <v>$addressAndBukkenNameAndContractBukkenNo$</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="30"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="70"/>
     </row>
     <row r="7" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="38" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="101" t="str">
         <f>IF(契約・不可分一体精算申請書!G6="","",契約・不可分一体精算申請書!G6)</f>
         <v/>
@@ -2964,21 +2971,21 @@
       </c>
       <c r="B11" s="97"/>
       <c r="C11" s="97"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="77"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="53"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1"/>
     <row r="13" spans="1:18">
@@ -3005,80 +3012,80 @@
     </row>
     <row r="14" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="53" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
     </row>
     <row r="16" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="59" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60" t="s">
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60" t="s">
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60" t="s">
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60" t="s">
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
     </row>
     <row r="17" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
     </row>
     <row r="18" spans="1:18">
       <c r="O18" s="11" t="s">
@@ -3086,26 +3093,26 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="O19" s="51" t="s">
+      <c r="O19" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="51" t="s">
+      <c r="P19" s="38"/>
+      <c r="Q19" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="R19" s="52"/>
+      <c r="R19" s="38"/>
     </row>
     <row r="20" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O20" s="47"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="48"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O21" s="49"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="50"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
@@ -3183,10 +3190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8956353-C046-4A77-8EE0-96F5C5881A6C}">
-  <dimension ref="A2:C12"/>
+  <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3255,6 +3262,11 @@
         <v>56</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/契約精算申請書.xlsx
+++ b/template/契約精算申請書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hishi\Desktop\ws\MetoPro\_kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C7D9B6-D077-4555-8B38-F60CC9F6C09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A5A78-810D-4DB5-8A22-1FB0C93F9213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="793" xr2:uid="{8952CFD7-97A9-4175-A244-87481FE172CC}"/>
   </bookViews>
@@ -514,13 +514,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>8部</t>
-    <rPh sb="1" eb="2">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>大阪1部</t>
     <rPh sb="0" eb="2">
       <t>オオサカ</t>
@@ -551,26 +544,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名古屋1部</t>
-    <rPh sb="0" eb="3">
-      <t>ナゴヤ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名古屋2部</t>
-    <rPh sb="0" eb="3">
-      <t>ナゴヤ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2ヶ月</t>
     <rPh sb="2" eb="3">
       <t>ゲツ</t>
@@ -649,6 +622,27 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名古屋</t>
+    <rPh sb="0" eb="3">
+      <t>ナゴヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京都</t>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>福岡</t>
+    <rPh sb="0" eb="2">
+      <t>フクオカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1459,7 +1453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1490,8 +1484,165 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1519,43 +1670,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
     </xf>
@@ -1580,49 +1694,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
@@ -1632,83 +1703,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1799,9 +1793,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1883,14 +1874,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1928,7 +1915,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2034,7 +2021,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2176,7 +2163,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2186,7 +2173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8621565-D2C9-435C-9543-151186F78AFD}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2204,312 +2193,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="12"/>
+      <c r="M1" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="32"/>
     </row>
     <row r="2" spans="1:20" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="67">
+      <c r="C2" s="54">
         <f ca="1">TODAY()</f>
-        <v>45763</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+        <v>45973</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:20" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A5" s="14" t="str">
+      <c r="A5" s="60" t="str">
         <f>IF(M10="","",IF(M10=P10,"契約精算申請書【不可分成立】","契約精算申請書"))</f>
         <v/>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="16"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="62"/>
     </row>
     <row r="6" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="71"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="58"/>
     </row>
     <row r="7" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="39"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="74"/>
     </row>
     <row r="8" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="39"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="74"/>
     </row>
     <row r="9" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="35"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="70"/>
     </row>
     <row r="10" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58" t="s">
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="61"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
       <c r="O10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="61"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="47"/>
     </row>
     <row r="12" spans="1:20" ht="33.75" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="48"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="51"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="51"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="31"/>
       <c r="R12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="43"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="23"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="77"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="53"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1"/>
     <row r="16" spans="1:20">
@@ -2536,104 +2519,104 @@
     </row>
     <row r="17" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="18" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="63" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
     </row>
     <row r="19" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="64" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
     </row>
     <row r="20" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="72" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73" t="s">
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73" t="s">
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73" t="s">
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73" t="s">
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
     </row>
     <row r="21" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
     </row>
     <row r="22" spans="1:18">
       <c r="O22" s="11" t="s">
@@ -2641,98 +2624,85 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="R23" s="66"/>
+      <c r="R23" s="38"/>
     </row>
     <row r="24" spans="1:18" ht="26.25" customHeight="1">
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="22"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="34"/>
     </row>
     <row r="25" spans="1:18" ht="26.25" customHeight="1">
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="24"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z/Yn9HttRCpxeGK+gUnoGfYqmUU2W7ttuUB+84cxHM+KbUj1yi+NNhdNTdW56B094agDbzH1qQ1dJUHOCPrQ0Q==" saltValue="SIN14KgqYTCBin0vmWI9PQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="G6:R6"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:R21"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:R14"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:R18"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="G6:R6"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="G9:R9"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="G7:R7"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="G8:R8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:R21"/>
+    <mergeCell ref="P19:R19"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="M2:N3"/>
     <mergeCell ref="O2:P3"/>
     <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:Q10"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:R13"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2742,17 +2712,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B17213BF-6B2D-4453-A91C-055DD5004D30}">
-          <x14:formula1>
-            <xm:f>Sheet3!$A$1:$A$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:B3</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E1EBE4A2-203A-4AC2-A92E-91AB364FBB4C}">
           <x14:formula1>
             <xm:f>Sheet3!$C$1:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>D13:R13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B17213BF-6B2D-4453-A91C-055DD5004D30}">
+          <x14:formula1>
+            <xm:f>Sheet3!$A$1:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2764,7 +2734,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2F160E-8C9E-463D-AAE0-231292C76DA5}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:R8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -2782,44 +2754,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="12"/>
+      <c r="M1" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="32"/>
     </row>
     <row r="2" spans="1:18" ht="26.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="67">
+      <c r="C2" s="54">
         <f ca="1">TODAY()</f>
-        <v>45763</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+        <v>45973</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:18" ht="26.25" customHeight="1">
       <c r="A3" s="98" t="str">
@@ -2841,14 +2809,12 @@
       <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:18" ht="40.5" customHeight="1" thickBot="1">
@@ -2874,63 +2840,63 @@
       <c r="R5" s="82"/>
     </row>
     <row r="6" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="83" t="str">
         <f>契約・不可分一体精算申請書!G7</f>
         <v>$addressAndBukkenNameAndContractBukkenNo$</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="35"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="70"/>
     </row>
     <row r="7" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="101" t="str">
         <f>IF(契約・不可分一体精算申請書!G6="","",契約・不可分一体精算申請書!G6)</f>
         <v/>
@@ -2962,7 +2928,7 @@
       <c r="G9" s="79"/>
       <c r="H9" s="79"/>
       <c r="I9" s="87" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
@@ -3005,21 +2971,21 @@
       </c>
       <c r="B11" s="97"/>
       <c r="C11" s="97"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="77"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="53"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1"/>
     <row r="13" spans="1:18">
@@ -3046,80 +3012,80 @@
     </row>
     <row r="14" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="15" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="64" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
     </row>
     <row r="16" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="72" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73" t="s">
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73" t="s">
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73" t="s">
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73" t="s">
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
     </row>
     <row r="17" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
     </row>
     <row r="18" spans="1:18">
       <c r="O18" s="11" t="s">
@@ -3127,38 +3093,26 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="65" t="s">
+      <c r="O19" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="R19" s="66"/>
+      <c r="R19" s="38"/>
     </row>
     <row r="20" spans="1:18" ht="26.25" customHeight="1">
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
     </row>
     <row r="21" spans="1:18" ht="26.25" customHeight="1">
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
@@ -3238,7 +3192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8956353-C046-4A77-8EE0-96F5C5881A6C}">
   <dimension ref="A2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -3247,7 +3203,7 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3255,7 +3211,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3263,7 +3219,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3298,17 +3254,17 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
